--- a/tests.xlsx
+++ b/tests.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31480" windowHeight="23360" tabRatio="500"/>
+    <workbookView xWindow="11140" yWindow="1900" windowWidth="31480" windowHeight="23360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
     <sheet name="scalability meeting normal sync" sheetId="2" r:id="rId2"/>
     <sheet name="Scalability agent normal sync" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="24">
   <si>
     <t>Density</t>
   </si>
@@ -71,15 +71,9 @@
     <t>Runs</t>
   </si>
   <si>
-    <t>100-1000</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>changeConstraints</t>
   </si>
   <si>
@@ -96,6 +90,9 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>10-100</t>
   </si>
 </sst>
 </file>
@@ -253,7 +250,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -273,8 +270,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -338,8 +343,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -349,6 +360,10 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -358,6 +373,10 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -690,7 +709,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -722,19 +741,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
@@ -771,7 +790,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2">
         <v>10</v>
@@ -798,7 +817,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3">
         <v>10</v>
@@ -825,15 +844,15 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N4">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="10" t="s">
-        <v>13</v>
+      <c r="A5" s="23">
+        <v>18537</v>
       </c>
       <c r="B5" s="11">
         <v>10</v>
@@ -856,7 +875,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N5">
         <v>10</v>
@@ -883,7 +902,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>10</v>
@@ -910,18 +929,18 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
+      <c r="A8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="7">
         <v>0.25</v>
@@ -940,6 +959,9 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
+      <c r="L8" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N8">
         <v>10</v>
       </c>
@@ -964,6 +986,9 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
+      <c r="L9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N9">
         <v>10</v>
       </c>
@@ -988,16 +1013,19 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
+      <c r="L10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N10">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>16</v>
+      <c r="A11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="11">
         <v>0.5</v>
@@ -1016,6 +1044,9 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
+      <c r="L11" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N11">
         <v>10</v>
       </c>
@@ -1040,6 +1071,9 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
+      <c r="L12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N12">
         <v>10</v>
       </c>
@@ -1064,16 +1098,19 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N13">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>16</v>
+      <c r="A14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="11">
         <v>0.75</v>
@@ -1092,6 +1129,9 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N14">
         <v>10</v>
       </c>
@@ -1116,6 +1156,9 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
+      <c r="L15" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N15">
         <v>10</v>
       </c>
@@ -1140,16 +1183,19 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
+      <c r="L16" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N16">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>16</v>
+      <c r="A17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="7">
         <v>0.25</v>
@@ -1249,7 +1295,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1257,7 +1303,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1268,12 +1314,12 @@
         <v>100</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="F27" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1284,7 +1330,7 @@
         <v>1000</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1672,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="1900" windowWidth="31480" windowHeight="23360" tabRatio="500"/>
+    <workbookView xWindow="56500" yWindow="980" windowWidth="31480" windowHeight="23360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="26">
   <si>
     <t>Density</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>10-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Async</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -249,8 +255,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -278,10 +336,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,8 +416,35 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -364,6 +458,11 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -377,6 +476,11 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -708,88 +812,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="13.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="3" customWidth="1"/>
-    <col min="6" max="11" width="22.33203125" style="3" customWidth="1"/>
-    <col min="12" max="13" width="10.83203125" style="3"/>
+    <col min="1" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="13.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
+    <col min="6" max="11" width="22.33203125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="6">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="5">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0.25</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="3" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N2">
@@ -797,26 +901,26 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10">
         <v>0.25</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="3" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N3">
@@ -824,26 +928,26 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10">
         <v>0.25</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="3" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N4">
@@ -851,30 +955,30 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>18537</v>
       </c>
-      <c r="B5" s="11">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="10">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10">
         <v>0.25</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="3" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N5">
@@ -882,26 +986,26 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10">
         <v>0.25</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="3" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N6">
@@ -909,26 +1013,26 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14">
         <v>0.25</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="3" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N7">
@@ -936,30 +1040,30 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="3" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N8">
@@ -967,26 +1071,26 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10">
         <v>0.25</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="3" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N9">
@@ -994,26 +1098,26 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10">
         <v>0.25</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="3" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N10">
@@ -1021,30 +1125,30 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>0.5</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="3" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N11">
@@ -1052,26 +1156,26 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10">
         <v>0.5</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="3" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N12">
@@ -1079,26 +1183,26 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10">
         <v>0.5</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="3" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N13">
@@ -1106,30 +1210,30 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>0.75</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="3" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N14">
@@ -1137,26 +1241,26 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10">
         <v>0.75</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="3" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N15">
@@ -1164,26 +1268,26 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14">
         <v>0.75</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="3" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N16">
@@ -1191,145 +1295,154 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>0.25</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="N17">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10">
         <v>0.25</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="N18">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14">
         <v>0.25</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="N19">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="3">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="A21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>100</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>100</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>1000</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1000</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1346,332 +1459,593 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="1" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
-        <f>A2+10</f>
+      <c r="E2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>46.45</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100.2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44.2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>91.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="K3" s="2">
+        <v>244.3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>77.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2">
+        <f>A3+10</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
-        <f t="shared" ref="A4:A51" si="0">A3+10</f>
+      <c r="B4" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="C4" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>91.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G4" s="2">
+        <v>70.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="J4" s="2">
+        <v>87.8</v>
+      </c>
+      <c r="K4" s="2">
+        <v>91.8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M4" s="2">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2">
+        <f t="shared" ref="A5:A52" si="0">A4+10</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
+      <c r="B5" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D5" s="2">
+        <v>63.25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I5" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>49.5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>70.7</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="M5" s="2">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3">
+      <c r="B6" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>34.65</v>
+      </c>
+      <c r="D6" s="2">
+        <v>57.85</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F6" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>73.7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J6" s="34">
+        <v>51.1</v>
+      </c>
+      <c r="K6" s="34">
+        <v>26.7</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="M6" s="34">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
+      <c r="B7" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C7" s="2">
+        <v>23.95</v>
+      </c>
+      <c r="D7" s="2">
+        <v>67.3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>27.9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>65.2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="J7" s="34">
+        <v>50.7</v>
+      </c>
+      <c r="K7" s="34">
+        <v>31.5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M7" s="34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
+      <c r="B8" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C8" s="2">
+        <v>17.25</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3">
+      <c r="B9" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="B10" s="2">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
+      <c r="B11" s="2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3">
+      <c r="B12" s="2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="14" spans="1:13">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3">
+    <row r="15" spans="1:13">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
+    <row r="16" spans="1:13">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3">
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3">
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3">
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3">
+      <c r="B22" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3">
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3">
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3">
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3">
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3">
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3">
+      <c r="B32" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3">
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3">
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3">
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3">
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3">
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3">
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3">
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3">
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3">
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3">
+      <c r="B42" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3">
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3">
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>430</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3">
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3">
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3">
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3">
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3">
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3">
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3">
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>500</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1690,270 +2064,270 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>450</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>500</v>
       </c>
     </row>
